--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPMENT\Python\Word Puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA455AC-402B-4B9D-8EFA-DF9FD0C88DEF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724B76A-C584-49A5-8BC7-B564965410D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B33AE50D-7B22-4185-9501-75B76830D4D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B33AE50D-7B22-4185-9501-75B76830D4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Puzzle" sheetId="1" r:id="rId1"/>
-    <sheet name="Words" sheetId="2" r:id="rId2"/>
+    <sheet name="Words to find" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="75">
   <si>
     <t>A</t>
   </si>
@@ -39,110 +39,232 @@
     <t>B</t>
   </si>
   <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>W</t>
+    <t>J</t>
   </si>
   <si>
     <t>X</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>Word Puzzle</t>
-  </si>
-  <si>
-    <t>Words to Find</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Quiver</t>
-  </si>
-  <si>
-    <t>War</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Pretty</t>
+    <t>ADORE</t>
+  </si>
+  <si>
+    <t>FOREVER</t>
+  </si>
+  <si>
+    <t>PASSION</t>
+  </si>
+  <si>
+    <t>AFFECTION</t>
+  </si>
+  <si>
+    <t>HEART</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ALWAYS</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>RINGS</t>
+  </si>
+  <si>
+    <t>ANNIVERSARY</t>
+  </si>
+  <si>
+    <t>HUG</t>
+  </si>
+  <si>
+    <t>SEEING</t>
+  </si>
+  <si>
+    <t>APPRECIATE</t>
+  </si>
+  <si>
+    <t>INCOMPLETE</t>
+  </si>
+  <si>
+    <t>SMILE</t>
+  </si>
+  <si>
+    <t>BABE</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>SPECIAL</t>
+  </si>
+  <si>
+    <t>BED</t>
+  </si>
+  <si>
+    <t>KISS</t>
+  </si>
+  <si>
+    <t>SQUIRT</t>
+  </si>
+  <si>
+    <t>BELONG</t>
+  </si>
+  <si>
+    <t>LEASIA</t>
+  </si>
+  <si>
+    <t>THINKING OF YOU</t>
+  </si>
+  <si>
+    <t>CARE</t>
+  </si>
+  <si>
+    <t>LETTERS</t>
+  </si>
+  <si>
+    <t>TOGETHER</t>
+  </si>
+  <si>
+    <t>CARESSING</t>
+  </si>
+  <si>
+    <t>LONG FOR</t>
+  </si>
+  <si>
+    <t>TOUCH</t>
+  </si>
+  <si>
+    <t>CHERISH</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>TREASURE</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>LOVING YOU</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>DESIRE</t>
+  </si>
+  <si>
+    <t>LOYAL</t>
+  </si>
+  <si>
+    <t>VISITS</t>
+  </si>
+  <si>
+    <t>DREAMING OF YOU</t>
+  </si>
+  <si>
+    <t>MARRIAGE</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>EMBRACE</t>
+  </si>
+  <si>
+    <t>MISS YOU</t>
+  </si>
+  <si>
+    <t>YEARNING</t>
+  </si>
+  <si>
+    <t>EMOTION</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>ENJOY</t>
+  </si>
+  <si>
+    <t>ONLY YOU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="36"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,7 +293,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,105 +610,1255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A606266A-DCEE-494C-BF23-178DB9C600DC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.85546875" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" t="s">
+        <v>21</v>
+      </c>
+      <c r="P9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" t="s">
+        <v>6</v>
+      </c>
+      <c r="T9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R10" t="s">
+        <v>17</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>13</v>
+      </c>
+      <c r="O11" t="s">
+        <v>6</v>
+      </c>
+      <c r="P11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>22</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>19</v>
+      </c>
+      <c r="T11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" t="s">
+        <v>14</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N14" t="s">
+        <v>6</v>
+      </c>
+      <c r="O14" t="s">
+        <v>6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" t="s">
+        <v>12</v>
+      </c>
+      <c r="N15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s">
+        <v>15</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+      <c r="T15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+      <c r="T16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>12</v>
+      </c>
+      <c r="S17" t="s">
+        <v>6</v>
+      </c>
+      <c r="T17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+      <c r="M18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" t="s">
+        <v>7</v>
+      </c>
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>18</v>
+      </c>
+      <c r="R18" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" t="s">
+        <v>7</v>
+      </c>
+      <c r="T18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N19" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" t="s">
+        <v>17</v>
+      </c>
+      <c r="P19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S19" t="s">
+        <v>21</v>
+      </c>
+      <c r="T19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="N20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>9</v>
+      </c>
+      <c r="R20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="S20" t="s">
+        <v>11</v>
+      </c>
+      <c r="T20" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -595,42 +1869,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23112D4D-DFEE-4871-9C29-DF268EC873E4}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/puzzle.xlsx
+++ b/puzzle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPMENT\Python\Word Puzzle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEVELOPMENT\Python\GITHUB\Word-Search-Puzzle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0724B76A-C584-49A5-8BC7-B564965410D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD01D32E-C469-447C-84B1-0D9093FC396E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B33AE50D-7B22-4185-9501-75B76830D4D8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B33AE50D-7B22-4185-9501-75B76830D4D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Puzzle" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>ONLY YOU</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
   </si>
 </sst>
 </file>
@@ -612,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A606266A-DCEE-494C-BF23-178DB9C600DC}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AD8" sqref="AD8"/>
     </sheetView>
   </sheetViews>
@@ -1869,10 +1872,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23112D4D-DFEE-4871-9C29-DF268EC873E4}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,191 +1940,196 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>70</v>
       </c>
     </row>
